--- a/myapp/files/9_MethodComparePercent/Scenario 329.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 329.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1056</v>
+        <v>6848</v>
       </c>
       <c r="F2" t="n">
-        <v>1.05970898143502</v>
+        <v>1.24142081772795</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.81818181818182</v>
+        <v>1.20967741935484</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>572</v>
+        <v>11816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.574009031610637</v>
+        <v>2.14203101376657</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.81818181818182</v>
+        <v>1.61290322580645</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>4738</v>
+        <v>29108</v>
       </c>
       <c r="F4" t="n">
-        <v>4.75464124435524</v>
+        <v>5.27676360432612</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.63636363636364</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>10214</v>
+        <v>25824</v>
       </c>
       <c r="F5" t="n">
-        <v>10.2498745609634</v>
+        <v>4.68143270984326</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>9.09090909090909</v>
+        <v>5.24193548387097</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>12101</v>
+        <v>18023</v>
       </c>
       <c r="F6" t="n">
-        <v>12.1435022579027</v>
+        <v>3.26724991207811</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>4.76190476190476</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>7.27272727272727</v>
+        <v>2.82258064516129</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>7154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0572002007024586</v>
+        <v>1.29689318487526</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.81818181818182</v>
+        <v>1.61290322580645</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4617</v>
+        <v>17589</v>
       </c>
       <c r="F8" t="n">
-        <v>4.63321625689915</v>
+        <v>3.18857341749664</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.81818181818182</v>
+        <v>3.62903225806452</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>8112</v>
+        <v>36181</v>
       </c>
       <c r="F9" t="n">
-        <v>8.14049172102358</v>
+        <v>6.55897292730945</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4.76190476190476</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>9.09090909090909</v>
+        <v>8.87096774193548</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>7369</v>
+        <v>29312</v>
       </c>
       <c r="F10" t="n">
-        <v>7.39488208730557</v>
+        <v>5.31374518242432</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>7.93650793650794</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>9.09090909090909</v>
+        <v>9.2741935483871</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>4740</v>
+        <v>14890</v>
       </c>
       <c r="F11" t="n">
-        <v>4.75664826894129</v>
+        <v>2.69929263667775</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.63636363636364</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9025</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.63607226635438</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.20967741935484</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4658</v>
+        <v>25441</v>
       </c>
       <c r="F13" t="n">
-        <v>4.6743602609132</v>
+        <v>4.61200160978634</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>5.45454545454545</v>
+        <v>4.03225806451613</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9336</v>
+        <v>59566</v>
       </c>
       <c r="F14" t="n">
-        <v>9.3687907676869</v>
+        <v>10.7982582401845</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1049,10 +1049,10 @@
         <v>12.6984126984127</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>7.27272727272727</v>
+        <v>8.06451612903226</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>13228</v>
+        <v>56914</v>
       </c>
       <c r="F15" t="n">
-        <v>13.2744606121425</v>
+        <v>10.3174977249078</v>
       </c>
       <c r="G15" t="n">
         <v>17</v>
@@ -1087,10 +1087,10 @@
         <v>26.984126984127</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>12.7272727272727</v>
+        <v>10.4838709677419</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7348</v>
+        <v>23682</v>
       </c>
       <c r="F16" t="n">
-        <v>7.37380832915203</v>
+        <v>4.29312613981212</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.76190476190476</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>9.09090909090909</v>
+        <v>5.64516129032258</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>1326</v>
+        <v>12359</v>
       </c>
       <c r="F17" t="n">
-        <v>1.33065730055193</v>
+        <v>2.24046727311621</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.81818181818182</v>
+        <v>1.61290322580645</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>22050</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.99727351502649</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.82258064516129</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>34399</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.2359279656869</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>14.2857142857143</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.83870967741935</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1902</v>
+        <v>28812</v>
       </c>
       <c r="F20" t="n">
-        <v>1.90868038133467</v>
+        <v>5.22310405963461</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>4.76190476190476</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>3.63636363636364</v>
+        <v>6.85483870967742</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>573</v>
+        <v>13176</v>
       </c>
       <c r="F21" t="n">
-        <v>0.575012543903663</v>
+        <v>2.3885748677546</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>3.63636363636364</v>
+        <v>4.43548387096774</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7383</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.33840681911295</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3796</v>
+        <v>14689</v>
       </c>
       <c r="F23" t="n">
-        <v>3.80933266432514</v>
+        <v>2.66285490531628</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.63636363636364</v>
+        <v>2.41935483870968</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3907</v>
+        <v>20484</v>
       </c>
       <c r="F24" t="n">
-        <v>3.92072252885098</v>
+        <v>3.71338551844909</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.63636363636364</v>
+        <v>2.82258064516129</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>13085</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.37207818340687</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.01612903225806</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>13816</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.50459550492544</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.20967741935484</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
